--- a/data/pca/factorExposure/factorExposure_2015-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01059530001267168</v>
+        <v>0.009309748774511278</v>
       </c>
       <c r="C2">
-        <v>-0.0365713399213635</v>
+        <v>0.05203629192031984</v>
       </c>
       <c r="D2">
-        <v>-0.1141481054062771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02598615133248324</v>
+      </c>
+      <c r="E2">
+        <v>0.1162750630650594</v>
+      </c>
+      <c r="F2">
+        <v>-0.1291892795349107</v>
+      </c>
+      <c r="G2">
+        <v>-0.07003768556217793</v>
+      </c>
+      <c r="H2">
+        <v>0.04284424873139957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03541480937888157</v>
+        <v>0.01805313101110563</v>
       </c>
       <c r="C4">
-        <v>-0.1082992383246538</v>
+        <v>0.1321094768155578</v>
       </c>
       <c r="D4">
-        <v>-0.06608474454677422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.005318315610595017</v>
+      </c>
+      <c r="E4">
+        <v>0.085003289928389</v>
+      </c>
+      <c r="F4">
+        <v>-0.1142349691030688</v>
+      </c>
+      <c r="G4">
+        <v>0.06298103955924418</v>
+      </c>
+      <c r="H4">
+        <v>0.02693754206596386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02526133665312499</v>
+        <v>0.03334930224275468</v>
       </c>
       <c r="C6">
-        <v>-0.03837075359975274</v>
+        <v>0.05094887002435822</v>
       </c>
       <c r="D6">
-        <v>-0.08140495695197668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.004727693437414194</v>
+      </c>
+      <c r="E6">
+        <v>0.1140440055869693</v>
+      </c>
+      <c r="F6">
+        <v>-0.07657846195319472</v>
+      </c>
+      <c r="G6">
+        <v>-0.004493889502429904</v>
+      </c>
+      <c r="H6">
+        <v>-0.04656428325309417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.009043766870556955</v>
+        <v>0.005699780918676285</v>
       </c>
       <c r="C7">
-        <v>-0.03731187242596472</v>
+        <v>0.05210322381615975</v>
       </c>
       <c r="D7">
-        <v>-0.06681924874343292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.003360103854989222</v>
+      </c>
+      <c r="E7">
+        <v>0.09299133682474051</v>
+      </c>
+      <c r="F7">
+        <v>-0.02461580683203576</v>
+      </c>
+      <c r="G7">
+        <v>0.02014330675005909</v>
+      </c>
+      <c r="H7">
+        <v>-0.009474496644158593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0007473661029619336</v>
+        <v>-0.004581020249095746</v>
       </c>
       <c r="C8">
-        <v>-0.04339130156168718</v>
+        <v>0.05193442366749634</v>
       </c>
       <c r="D8">
-        <v>-0.06489248209495527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0132404743655608</v>
+      </c>
+      <c r="E8">
+        <v>0.06475097941430066</v>
+      </c>
+      <c r="F8">
+        <v>-0.07699059902308664</v>
+      </c>
+      <c r="G8">
+        <v>0.01088923745136217</v>
+      </c>
+      <c r="H8">
+        <v>0.06484514403608214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02156739526857585</v>
+        <v>0.01124767981812043</v>
       </c>
       <c r="C9">
-        <v>-0.09448224769236022</v>
+        <v>0.1091936876792284</v>
       </c>
       <c r="D9">
-        <v>-0.07405668069756183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.009955115362365277</v>
+      </c>
+      <c r="E9">
+        <v>0.07765309083138147</v>
+      </c>
+      <c r="F9">
+        <v>-0.08440483153532623</v>
+      </c>
+      <c r="G9">
+        <v>0.0248905008995516</v>
+      </c>
+      <c r="H9">
+        <v>-0.01015663587209928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2230933322929219</v>
+        <v>0.2436401650327788</v>
       </c>
       <c r="C10">
-        <v>0.1083659306692767</v>
+        <v>-0.08183181939255535</v>
       </c>
       <c r="D10">
-        <v>0.03793268373792453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.003102575427001517</v>
+      </c>
+      <c r="E10">
+        <v>-0.02447666378645253</v>
+      </c>
+      <c r="F10">
+        <v>-0.01947315061272503</v>
+      </c>
+      <c r="G10">
+        <v>0.01290169893332866</v>
+      </c>
+      <c r="H10">
+        <v>-0.01606014534301418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.004791781560691343</v>
+        <v>0.009547609965825489</v>
       </c>
       <c r="C11">
-        <v>-0.04366497336784812</v>
+        <v>0.06323135683189503</v>
       </c>
       <c r="D11">
-        <v>-0.04030072231670134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.006728671980259973</v>
+      </c>
+      <c r="E11">
+        <v>0.05516397467252181</v>
+      </c>
+      <c r="F11">
+        <v>-0.009478123721405773</v>
+      </c>
+      <c r="G11">
+        <v>0.01363429017775347</v>
+      </c>
+      <c r="H11">
+        <v>-0.01080025217320758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.005277355454500506</v>
+        <v>0.01016621928222652</v>
       </c>
       <c r="C12">
-        <v>-0.04682511994161892</v>
+        <v>0.05455960273866898</v>
       </c>
       <c r="D12">
-        <v>-0.04554072448337198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.002241942553463769</v>
+      </c>
+      <c r="E12">
+        <v>0.05081235799667257</v>
+      </c>
+      <c r="F12">
+        <v>-0.01014240071892385</v>
+      </c>
+      <c r="G12">
+        <v>-0.01486254575630032</v>
+      </c>
+      <c r="H12">
+        <v>-0.02559026321715997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01612243393635495</v>
+        <v>0.006106544519559891</v>
       </c>
       <c r="C13">
-        <v>-0.05826593825283354</v>
+        <v>0.08700222543088285</v>
       </c>
       <c r="D13">
-        <v>-0.1122977589326141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03944467385490487</v>
+      </c>
+      <c r="E13">
+        <v>0.126986743921104</v>
+      </c>
+      <c r="F13">
+        <v>-0.05831684749370036</v>
+      </c>
+      <c r="G13">
+        <v>-0.09450492943231448</v>
+      </c>
+      <c r="H13">
+        <v>-0.02836858795806526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01092114330723781</v>
+        <v>0.002396734738186625</v>
       </c>
       <c r="C14">
-        <v>-0.02307574316617252</v>
+        <v>0.04513836095708285</v>
       </c>
       <c r="D14">
-        <v>-0.05745209429084596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0146683419256486</v>
+      </c>
+      <c r="E14">
+        <v>0.1054991594724823</v>
+      </c>
+      <c r="F14">
+        <v>-0.05415174037343431</v>
+      </c>
+      <c r="G14">
+        <v>-0.03372102153825992</v>
+      </c>
+      <c r="H14">
+        <v>-0.03662197897510933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00345460163350188</v>
+        <v>-0.005203366551774329</v>
       </c>
       <c r="C15">
-        <v>-0.01845504626412942</v>
+        <v>0.03947236958137554</v>
       </c>
       <c r="D15">
-        <v>-0.0556007367381986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008013865523787819</v>
+      </c>
+      <c r="E15">
+        <v>0.07151984810431056</v>
+      </c>
+      <c r="F15">
+        <v>-0.02919681564135461</v>
+      </c>
+      <c r="G15">
+        <v>-0.0004543138216377311</v>
+      </c>
+      <c r="H15">
+        <v>0.0106177580884964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006539500354817283</v>
+        <v>0.009568233472012735</v>
       </c>
       <c r="C16">
-        <v>-0.04329759054597698</v>
+        <v>0.05662485337037928</v>
       </c>
       <c r="D16">
-        <v>-0.04264432161957128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.00147557141185664</v>
+      </c>
+      <c r="E16">
+        <v>0.05213798089931814</v>
+      </c>
+      <c r="F16">
+        <v>-0.007646977844210552</v>
+      </c>
+      <c r="G16">
+        <v>0.01077724070831654</v>
+      </c>
+      <c r="H16">
+        <v>-0.02787764246154493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003012902326025077</v>
+        <v>0.0005152154796787895</v>
       </c>
       <c r="C19">
-        <v>-0.0276952262012444</v>
+        <v>0.02030687909867261</v>
       </c>
       <c r="D19">
-        <v>-0.03921313937161659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.008121043898880308</v>
+      </c>
+      <c r="E19">
+        <v>0.01194290591888398</v>
+      </c>
+      <c r="F19">
+        <v>0.003761137760085513</v>
+      </c>
+      <c r="G19">
+        <v>-0.02445565862453961</v>
+      </c>
+      <c r="H19">
+        <v>0.0192137330623345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002284806413908241</v>
+        <v>0.003279595223278859</v>
       </c>
       <c r="C20">
-        <v>-0.03936683136158468</v>
+        <v>0.05955829801075179</v>
       </c>
       <c r="D20">
-        <v>-0.05355912951850074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.008311950269571902</v>
+      </c>
+      <c r="E20">
+        <v>0.07575117556337264</v>
+      </c>
+      <c r="F20">
+        <v>-0.02966168110142508</v>
+      </c>
+      <c r="G20">
+        <v>0.02311853167277827</v>
+      </c>
+      <c r="H20">
+        <v>-0.01941547375462196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003987459156153617</v>
+        <v>0.003411651277397823</v>
       </c>
       <c r="C21">
-        <v>-0.06146706564516173</v>
+        <v>0.07220898967343287</v>
       </c>
       <c r="D21">
-        <v>-0.07424383778593895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.006817301162241564</v>
+      </c>
+      <c r="E21">
+        <v>0.08197879200459336</v>
+      </c>
+      <c r="F21">
+        <v>-0.0917526685971335</v>
+      </c>
+      <c r="G21">
+        <v>-0.1104031683821478</v>
+      </c>
+      <c r="H21">
+        <v>-0.01908556693960502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002704516207877087</v>
+        <v>-0.01106342204368783</v>
       </c>
       <c r="C22">
-        <v>-0.07784153333323635</v>
+        <v>0.1025551272171539</v>
       </c>
       <c r="D22">
-        <v>-0.1898140060376806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.08320351514292969</v>
+      </c>
+      <c r="E22">
+        <v>0.2072283247828006</v>
+      </c>
+      <c r="F22">
+        <v>-0.211316705209691</v>
+      </c>
+      <c r="G22">
+        <v>0.06430740404270957</v>
+      </c>
+      <c r="H22">
+        <v>0.2596769123189955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002873975120412587</v>
+        <v>-0.008007362638523773</v>
       </c>
       <c r="C23">
-        <v>-0.07893166218020427</v>
+        <v>0.1052593512476439</v>
       </c>
       <c r="D23">
-        <v>-0.1888783891405368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.08622712848429469</v>
+      </c>
+      <c r="E23">
+        <v>0.2059440738936498</v>
+      </c>
+      <c r="F23">
+        <v>-0.210145299719309</v>
+      </c>
+      <c r="G23">
+        <v>0.06013121574762718</v>
+      </c>
+      <c r="H23">
+        <v>0.2498231452987568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007224209742634556</v>
+        <v>0.01028550696930749</v>
       </c>
       <c r="C24">
-        <v>-0.06426831835070837</v>
+        <v>0.07257762191358108</v>
       </c>
       <c r="D24">
-        <v>-0.05248985178526287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01061899126909407</v>
+      </c>
+      <c r="E24">
+        <v>0.05973578890073948</v>
+      </c>
+      <c r="F24">
+        <v>-0.01252426861018278</v>
+      </c>
+      <c r="G24">
+        <v>0.002688705121107869</v>
+      </c>
+      <c r="H24">
+        <v>-0.01249566558018395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.008389212003018323</v>
+        <v>0.01411253450547303</v>
       </c>
       <c r="C25">
-        <v>-0.05741664470202757</v>
+        <v>0.0673983040737242</v>
       </c>
       <c r="D25">
-        <v>-0.0409927204837965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.001933962255851207</v>
+      </c>
+      <c r="E25">
+        <v>0.04561087847043576</v>
+      </c>
+      <c r="F25">
+        <v>-0.01339300483931966</v>
+      </c>
+      <c r="G25">
+        <v>0.0110473824286719</v>
+      </c>
+      <c r="H25">
+        <v>-0.01548086417452643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007875535281316976</v>
+        <v>0.01699802883826133</v>
       </c>
       <c r="C26">
-        <v>-0.02890392409903986</v>
+        <v>0.04595434156821615</v>
       </c>
       <c r="D26">
-        <v>-0.0477884529437246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02368332442891931</v>
+      </c>
+      <c r="E26">
+        <v>0.06745865528534979</v>
+      </c>
+      <c r="F26">
+        <v>-0.05567936444969068</v>
+      </c>
+      <c r="G26">
+        <v>-0.01287994006320035</v>
+      </c>
+      <c r="H26">
+        <v>0.008679896532308882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3063986803432827</v>
+        <v>0.3150813188953628</v>
       </c>
       <c r="C28">
-        <v>0.1089406198405847</v>
+        <v>-0.08796163435758923</v>
       </c>
       <c r="D28">
-        <v>0.01906125991988336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01810099861132242</v>
+      </c>
+      <c r="E28">
+        <v>-0.04652739594884554</v>
+      </c>
+      <c r="F28">
+        <v>-0.05982074007109554</v>
+      </c>
+      <c r="G28">
+        <v>0.004705549353477182</v>
+      </c>
+      <c r="H28">
+        <v>0.07620496163410599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>4.108874872205679e-05</v>
+        <v>0.003005469666538687</v>
       </c>
       <c r="C29">
-        <v>-0.029172031685291</v>
+        <v>0.05266944621144611</v>
       </c>
       <c r="D29">
-        <v>-0.06246367549871538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01204381804761117</v>
+      </c>
+      <c r="E29">
+        <v>0.1166277942355469</v>
+      </c>
+      <c r="F29">
+        <v>-0.05640478579057228</v>
+      </c>
+      <c r="G29">
+        <v>-0.03744818333394786</v>
+      </c>
+      <c r="H29">
+        <v>-0.06262620160333755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01738513606706838</v>
+        <v>0.01647743729335645</v>
       </c>
       <c r="C30">
-        <v>-0.09634591812166404</v>
+        <v>0.116617815855415</v>
       </c>
       <c r="D30">
-        <v>-0.1332755136106859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.00198281408817478</v>
+      </c>
+      <c r="E30">
+        <v>0.1426682338710143</v>
+      </c>
+      <c r="F30">
+        <v>-0.05248012769606304</v>
+      </c>
+      <c r="G30">
+        <v>0.02534819342574572</v>
+      </c>
+      <c r="H30">
+        <v>-0.001442111646874953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01429178307734061</v>
+        <v>0.008714703779287725</v>
       </c>
       <c r="C31">
-        <v>-0.09996784989182533</v>
+        <v>0.1028388027268796</v>
       </c>
       <c r="D31">
-        <v>-0.03546630180220049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00863077943364079</v>
+      </c>
+      <c r="E31">
+        <v>0.02073052659023147</v>
+      </c>
+      <c r="F31">
+        <v>-0.006181193596968864</v>
+      </c>
+      <c r="G31">
+        <v>-0.01080852007941641</v>
+      </c>
+      <c r="H31">
+        <v>0.02631577614539724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01261111204619534</v>
+        <v>0.01310243833903887</v>
       </c>
       <c r="C32">
-        <v>-0.05645760930892198</v>
+        <v>0.06433252891967833</v>
       </c>
       <c r="D32">
-        <v>-0.07864098219943454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04450218082621803</v>
+      </c>
+      <c r="E32">
+        <v>0.05142381975588496</v>
+      </c>
+      <c r="F32">
+        <v>-0.08046076824537966</v>
+      </c>
+      <c r="G32">
+        <v>-0.03442926970813016</v>
+      </c>
+      <c r="H32">
+        <v>0.001215245044895236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.000366972636538033</v>
+        <v>0.007312033912261058</v>
       </c>
       <c r="C33">
-        <v>-0.06062432820974165</v>
+        <v>0.08272874928255756</v>
       </c>
       <c r="D33">
-        <v>-0.0788300508454266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01297013862026643</v>
+      </c>
+      <c r="E33">
+        <v>0.09569653541865394</v>
+      </c>
+      <c r="F33">
+        <v>-0.04725451468550582</v>
+      </c>
+      <c r="G33">
+        <v>-0.003558969216219643</v>
+      </c>
+      <c r="H33">
+        <v>-0.009827055834846365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004362060743564828</v>
+        <v>0.009776403575266076</v>
       </c>
       <c r="C34">
-        <v>-0.06086885297732876</v>
+        <v>0.06195792033187323</v>
       </c>
       <c r="D34">
-        <v>-0.05687613986802253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.00857810244260958</v>
+      </c>
+      <c r="E34">
+        <v>0.04800392105613475</v>
+      </c>
+      <c r="F34">
+        <v>0.01813196081974507</v>
+      </c>
+      <c r="G34">
+        <v>-0.01580084708488513</v>
+      </c>
+      <c r="H34">
+        <v>-0.005763376186085084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009584458469763017</v>
+        <v>0.004352491385416248</v>
       </c>
       <c r="C35">
-        <v>-0.001208833553713897</v>
+        <v>0.02097448252337998</v>
       </c>
       <c r="D35">
-        <v>-0.005227594403045672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.004140537285606233</v>
+      </c>
+      <c r="E35">
+        <v>0.0356245221884302</v>
+      </c>
+      <c r="F35">
+        <v>-0.03118722432069802</v>
+      </c>
+      <c r="G35">
+        <v>-0.001339681518429627</v>
+      </c>
+      <c r="H35">
+        <v>-0.02903372767050832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005879598738818154</v>
+        <v>0.01042893670206755</v>
       </c>
       <c r="C36">
-        <v>-0.02887605182654261</v>
+        <v>0.039148256605413</v>
       </c>
       <c r="D36">
-        <v>-0.04035047251042068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01114677167858026</v>
+      </c>
+      <c r="E36">
+        <v>0.06070175321221671</v>
+      </c>
+      <c r="F36">
+        <v>-0.05238274239282098</v>
+      </c>
+      <c r="G36">
+        <v>-0.004300824076773675</v>
+      </c>
+      <c r="H36">
+        <v>-0.0006888914277150029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004977679316593666</v>
+        <v>0.006952181543593567</v>
       </c>
       <c r="C38">
-        <v>-0.0239352884234827</v>
+        <v>0.04314094898985647</v>
       </c>
       <c r="D38">
-        <v>-0.07142152787110041</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01353430699690681</v>
+      </c>
+      <c r="E38">
+        <v>0.07864100544707958</v>
+      </c>
+      <c r="F38">
+        <v>-0.02250393314516475</v>
+      </c>
+      <c r="G38">
+        <v>0.02010944041223466</v>
+      </c>
+      <c r="H38">
+        <v>0.05065244146557052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006381940345938295</v>
+        <v>0.007400215117578077</v>
       </c>
       <c r="C39">
-        <v>-0.07312117288550128</v>
+        <v>0.09966506679878956</v>
       </c>
       <c r="D39">
-        <v>-0.09839079501060932</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01594253065014602</v>
+      </c>
+      <c r="E39">
+        <v>0.1138111500261531</v>
+      </c>
+      <c r="F39">
+        <v>-0.01794631995997053</v>
+      </c>
+      <c r="G39">
+        <v>-0.004576063045175908</v>
+      </c>
+      <c r="H39">
+        <v>-0.03454199331791197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.002551790500958438</v>
+        <v>0.009349851943183262</v>
       </c>
       <c r="C40">
-        <v>-0.03291565295586698</v>
+        <v>0.04725359028439569</v>
       </c>
       <c r="D40">
-        <v>-0.1046821191912891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004778342739899824</v>
+      </c>
+      <c r="E40">
+        <v>0.121565076276029</v>
+      </c>
+      <c r="F40">
+        <v>-0.00758526652687726</v>
+      </c>
+      <c r="G40">
+        <v>-0.03881291480750727</v>
+      </c>
+      <c r="H40">
+        <v>0.003729414130777115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009403165395280829</v>
+        <v>0.0172219855606511</v>
       </c>
       <c r="C41">
-        <v>-0.02167062385148602</v>
+        <v>0.03807768790959395</v>
       </c>
       <c r="D41">
-        <v>-0.01776797538191596</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004771551133771607</v>
+      </c>
+      <c r="E41">
+        <v>0.02212578147648474</v>
+      </c>
+      <c r="F41">
+        <v>-0.005645320142510259</v>
+      </c>
+      <c r="G41">
+        <v>0.002232251036085937</v>
+      </c>
+      <c r="H41">
+        <v>0.007437379280497006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.002692321393486596</v>
+        <v>0.008466913835251673</v>
       </c>
       <c r="C43">
-        <v>-0.01840747005424483</v>
+        <v>0.03207873654646551</v>
       </c>
       <c r="D43">
-        <v>-0.03507170493073025</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.003439544704964275</v>
+      </c>
+      <c r="E43">
+        <v>0.0400818127858145</v>
+      </c>
+      <c r="F43">
+        <v>-0.008856365829486254</v>
+      </c>
+      <c r="G43">
+        <v>0.008977757556259038</v>
+      </c>
+      <c r="H43">
+        <v>0.008617513013253407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01403965173705964</v>
+        <v>0.007487210626724475</v>
       </c>
       <c r="C44">
-        <v>-0.05253142423188102</v>
+        <v>0.06985477609832129</v>
       </c>
       <c r="D44">
-        <v>-0.08077283984950646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.004083565277836939</v>
+      </c>
+      <c r="E44">
+        <v>0.1086588200230105</v>
+      </c>
+      <c r="F44">
+        <v>-0.06379671522547063</v>
+      </c>
+      <c r="G44">
+        <v>0.005650447958991989</v>
+      </c>
+      <c r="H44">
+        <v>0.01631590021909706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.007256019713726909</v>
+        <v>-0.002358107735381077</v>
       </c>
       <c r="C46">
-        <v>-0.04140226713374089</v>
+        <v>0.05166571539648315</v>
       </c>
       <c r="D46">
-        <v>-0.06518246190249952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01406541785479283</v>
+      </c>
+      <c r="E46">
+        <v>0.08542650818679547</v>
+      </c>
+      <c r="F46">
+        <v>-0.04940537693504143</v>
+      </c>
+      <c r="G46">
+        <v>-0.01448160981550642</v>
+      </c>
+      <c r="H46">
+        <v>-0.01927348955207547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04039082131465441</v>
+        <v>0.02630061362078187</v>
       </c>
       <c r="C47">
-        <v>-0.1328621813034258</v>
+        <v>0.1261054913801652</v>
       </c>
       <c r="D47">
-        <v>-0.04398652437375643</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.003792674345505747</v>
+      </c>
+      <c r="E47">
+        <v>0.004958200186685616</v>
+      </c>
+      <c r="F47">
+        <v>0.0105070952030477</v>
+      </c>
+      <c r="G47">
+        <v>0.007803581752992223</v>
+      </c>
+      <c r="H47">
+        <v>0.02003351383255996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003627152243972199</v>
+        <v>0.01256187019933859</v>
       </c>
       <c r="C48">
-        <v>-0.03347685370170714</v>
+        <v>0.04677774116212257</v>
       </c>
       <c r="D48">
-        <v>-0.04209224639687797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01136634771778423</v>
+      </c>
+      <c r="E48">
+        <v>0.06442196824426594</v>
+      </c>
+      <c r="F48">
+        <v>-0.06540650704497228</v>
+      </c>
+      <c r="G48">
+        <v>-0.0009652778883135145</v>
+      </c>
+      <c r="H48">
+        <v>0.007000457840837523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002827192019016465</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006302051080265987</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0004380124867318647</v>
+      </c>
+      <c r="E49">
+        <v>0.003135110431146353</v>
+      </c>
+      <c r="F49">
+        <v>0.01267965671753673</v>
+      </c>
+      <c r="G49">
+        <v>-0.0007381892361531121</v>
+      </c>
+      <c r="H49">
+        <v>-0.01573470918101677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01928984586960865</v>
+        <v>0.01206811213283994</v>
       </c>
       <c r="C50">
-        <v>-0.07344246041353784</v>
+        <v>0.08382503612240254</v>
       </c>
       <c r="D50">
-        <v>-0.05604527392545826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.004453177658343434</v>
+      </c>
+      <c r="E50">
+        <v>0.0399348624111379</v>
+      </c>
+      <c r="F50">
+        <v>-0.006330970478216173</v>
+      </c>
+      <c r="G50">
+        <v>0.005113349805642865</v>
+      </c>
+      <c r="H50">
+        <v>0.02915434242109733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00468779090375173</v>
+        <v>-0.00484873925337648</v>
       </c>
       <c r="C51">
-        <v>-0.01309248873381437</v>
+        <v>0.02482255964083005</v>
       </c>
       <c r="D51">
-        <v>-0.05224322276405221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01557686438066436</v>
+      </c>
+      <c r="E51">
+        <v>0.05934563795863904</v>
+      </c>
+      <c r="F51">
+        <v>-0.0549557568067099</v>
+      </c>
+      <c r="G51">
+        <v>-0.01690870595180757</v>
+      </c>
+      <c r="H51">
+        <v>0.00261292337217747</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07456410857317877</v>
+        <v>0.05653322517555558</v>
       </c>
       <c r="C53">
-        <v>-0.1634308161239086</v>
+        <v>0.1679357757483243</v>
       </c>
       <c r="D53">
-        <v>0.01252675841108754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0211428209780611</v>
+      </c>
+      <c r="E53">
+        <v>-0.06036117981527957</v>
+      </c>
+      <c r="F53">
+        <v>0.00759980781625059</v>
+      </c>
+      <c r="G53">
+        <v>-0.01289789721172681</v>
+      </c>
+      <c r="H53">
+        <v>0.03272679622989656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.001169207928837271</v>
+        <v>0.01023744284141057</v>
       </c>
       <c r="C54">
-        <v>-0.03838974616075921</v>
+        <v>0.05348076146754658</v>
       </c>
       <c r="D54">
-        <v>-0.08060724929682547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01395327489462921</v>
+      </c>
+      <c r="E54">
+        <v>0.08026246613682866</v>
+      </c>
+      <c r="F54">
+        <v>-0.02778484336792517</v>
+      </c>
+      <c r="G54">
+        <v>-0.001067830602315641</v>
+      </c>
+      <c r="H54">
+        <v>0.0105491284991341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05667993650785617</v>
+        <v>0.03674578185143172</v>
       </c>
       <c r="C55">
-        <v>-0.1266297874885923</v>
+        <v>0.1242662083294063</v>
       </c>
       <c r="D55">
-        <v>0.00842738372274701</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04309140628033974</v>
+      </c>
+      <c r="E55">
+        <v>-0.04730768597405258</v>
+      </c>
+      <c r="F55">
+        <v>0.03377159328403553</v>
+      </c>
+      <c r="G55">
+        <v>-0.0241851089886138</v>
+      </c>
+      <c r="H55">
+        <v>0.0397834769416796</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08838754474449416</v>
+        <v>0.05630748689364622</v>
       </c>
       <c r="C56">
-        <v>-0.1893384167392383</v>
+        <v>0.1920241428660782</v>
       </c>
       <c r="D56">
-        <v>-0.009919142217977043</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0334552490118485</v>
+      </c>
+      <c r="E56">
+        <v>-0.07414477537280229</v>
+      </c>
+      <c r="F56">
+        <v>0.04830369382998258</v>
+      </c>
+      <c r="G56">
+        <v>-0.05378557444920137</v>
+      </c>
+      <c r="H56">
+        <v>0.1096006403220768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01332685238329955</v>
+        <v>0.009094901929332488</v>
       </c>
       <c r="C58">
-        <v>-0.0573180113110657</v>
+        <v>0.1041684856656315</v>
       </c>
       <c r="D58">
-        <v>-0.1672902213066313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08463146886083829</v>
+      </c>
+      <c r="E58">
+        <v>0.1944228119141121</v>
+      </c>
+      <c r="F58">
+        <v>-0.2448348824235347</v>
+      </c>
+      <c r="G58">
+        <v>0.03886661309885722</v>
+      </c>
+      <c r="H58">
+        <v>0.1468467563530029</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2286784943429947</v>
+        <v>0.2638823878989069</v>
       </c>
       <c r="C59">
-        <v>0.06849763920953832</v>
+        <v>-0.04469192122698765</v>
       </c>
       <c r="D59">
-        <v>-0.0481693231001968</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03560093854724784</v>
+      </c>
+      <c r="E59">
+        <v>0.02134244658165094</v>
+      </c>
+      <c r="F59">
+        <v>-0.0390763938805333</v>
+      </c>
+      <c r="G59">
+        <v>-0.03628673533065407</v>
+      </c>
+      <c r="H59">
+        <v>0.007739481899444127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1451659663692361</v>
+        <v>0.1501180954115839</v>
       </c>
       <c r="C60">
-        <v>-0.1400169099948562</v>
+        <v>0.1652918736690416</v>
       </c>
       <c r="D60">
-        <v>-0.1158889073059132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02125472704287801</v>
+      </c>
+      <c r="E60">
+        <v>0.1213672580891212</v>
+      </c>
+      <c r="F60">
+        <v>0.209716738650762</v>
+      </c>
+      <c r="G60">
+        <v>-0.01064714489207407</v>
+      </c>
+      <c r="H60">
+        <v>-0.246697470034377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01117901775595368</v>
+        <v>0.0132661733316158</v>
       </c>
       <c r="C61">
-        <v>-0.06523451827198247</v>
+        <v>0.08659185037340802</v>
       </c>
       <c r="D61">
-        <v>-0.06885631801931333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007939867370620581</v>
+      </c>
+      <c r="E61">
+        <v>0.07752754613890121</v>
+      </c>
+      <c r="F61">
+        <v>-0.006534602314409052</v>
+      </c>
+      <c r="G61">
+        <v>-0.007724862115553385</v>
+      </c>
+      <c r="H61">
+        <v>-0.01456611623084586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001450147663481052</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0003848881730440062</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.001976595252733569</v>
+      </c>
+      <c r="E62">
+        <v>-4.810776640601578e-05</v>
+      </c>
+      <c r="F62">
+        <v>-0.002945909922954807</v>
+      </c>
+      <c r="G62">
+        <v>-0.0006914792010610516</v>
+      </c>
+      <c r="H62">
+        <v>0.001118433294530314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.001547842459402381</v>
+        <v>0.0144850709646574</v>
       </c>
       <c r="C63">
-        <v>-0.04172666427757298</v>
+        <v>0.05820843353487355</v>
       </c>
       <c r="D63">
-        <v>-0.06111212007077513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02656946449379335</v>
+      </c>
+      <c r="E63">
+        <v>0.08111086687282504</v>
+      </c>
+      <c r="F63">
+        <v>-0.02678005180494021</v>
+      </c>
+      <c r="G63">
+        <v>-0.003184705692947478</v>
+      </c>
+      <c r="H63">
+        <v>-0.0164275270497645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0278044414326687</v>
+        <v>0.01428323809680441</v>
       </c>
       <c r="C64">
-        <v>-0.1067069099364166</v>
+        <v>0.1045817534785341</v>
       </c>
       <c r="D64">
-        <v>-0.009769094171722876</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01876384200647743</v>
+      </c>
+      <c r="E64">
+        <v>0.01585595566970165</v>
+      </c>
+      <c r="F64">
+        <v>-0.02145432184307877</v>
+      </c>
+      <c r="G64">
+        <v>0.03272675102259594</v>
+      </c>
+      <c r="H64">
+        <v>-0.02424568390739191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02310084648746575</v>
+        <v>0.02669472753528034</v>
       </c>
       <c r="C65">
-        <v>-0.03295595554755111</v>
+        <v>0.05780273428157717</v>
       </c>
       <c r="D65">
-        <v>-0.08377852730757469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.02258795315797661</v>
+      </c>
+      <c r="E65">
+        <v>0.118059387983265</v>
+      </c>
+      <c r="F65">
+        <v>-0.01291360925534676</v>
+      </c>
+      <c r="G65">
+        <v>0.04990382793961917</v>
+      </c>
+      <c r="H65">
+        <v>-0.06971923263027606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0138628656821307</v>
+        <v>0.009091579739758831</v>
       </c>
       <c r="C66">
-        <v>-0.09185023455940486</v>
+        <v>0.1242535749896037</v>
       </c>
       <c r="D66">
-        <v>-0.1206606865559436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01022694075306411</v>
+      </c>
+      <c r="E66">
+        <v>0.1243031653209429</v>
+      </c>
+      <c r="F66">
+        <v>-0.02242589273082513</v>
+      </c>
+      <c r="G66">
+        <v>-0.00795497371975146</v>
+      </c>
+      <c r="H66">
+        <v>-0.001517134446289278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01330224934844947</v>
+        <v>0.01548161524624359</v>
       </c>
       <c r="C67">
-        <v>-0.02615977593975172</v>
+        <v>0.04246058106084819</v>
       </c>
       <c r="D67">
-        <v>-0.03993305461276989</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0002997548087756878</v>
+      </c>
+      <c r="E67">
+        <v>0.05133268309917281</v>
+      </c>
+      <c r="F67">
+        <v>0.01700947428076783</v>
+      </c>
+      <c r="G67">
+        <v>0.01553691490677528</v>
+      </c>
+      <c r="H67">
+        <v>0.03206184460940209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2423466564072035</v>
+        <v>0.2813571190127979</v>
       </c>
       <c r="C68">
-        <v>0.08694834107991969</v>
+        <v>-0.05849627825524765</v>
       </c>
       <c r="D68">
-        <v>-0.02714482826203011</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0235500692384788</v>
+      </c>
+      <c r="E68">
+        <v>0.04042116859904612</v>
+      </c>
+      <c r="F68">
+        <v>-0.05479052301044933</v>
+      </c>
+      <c r="G68">
+        <v>-0.000616046580918229</v>
+      </c>
+      <c r="H68">
+        <v>0.03106453425421175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.02785225705590522</v>
+        <v>0.01166570080783755</v>
       </c>
       <c r="C69">
-        <v>-0.132751176899205</v>
+        <v>0.1143320205194969</v>
       </c>
       <c r="D69">
-        <v>-0.05427833807477998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007368068150509749</v>
+      </c>
+      <c r="E69">
+        <v>0.01341691248717743</v>
+      </c>
+      <c r="F69">
+        <v>0.01807452519490605</v>
+      </c>
+      <c r="G69">
+        <v>-0.005705930635010873</v>
+      </c>
+      <c r="H69">
+        <v>0.01511016536939928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2626651921373344</v>
+        <v>0.2722559503604495</v>
       </c>
       <c r="C71">
-        <v>0.1026736867213482</v>
+        <v>-0.0745889145437776</v>
       </c>
       <c r="D71">
-        <v>-0.01825883810544593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.009510878235020873</v>
+      </c>
+      <c r="E71">
+        <v>0.01219612805985898</v>
+      </c>
+      <c r="F71">
+        <v>-0.02223023557606153</v>
+      </c>
+      <c r="G71">
+        <v>0.002814992592660475</v>
+      </c>
+      <c r="H71">
+        <v>0.05182335018490312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0802848401640955</v>
+        <v>0.06253221366878731</v>
       </c>
       <c r="C72">
-        <v>-0.1132349090349813</v>
+        <v>0.1327864064401129</v>
       </c>
       <c r="D72">
-        <v>-0.09189664591874019</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01931506134145332</v>
+      </c>
+      <c r="E72">
+        <v>0.07239248260398665</v>
+      </c>
+      <c r="F72">
+        <v>0.03371386309067823</v>
+      </c>
+      <c r="G72">
+        <v>0.01922845347522994</v>
+      </c>
+      <c r="H72">
+        <v>-0.05097667915045363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1477875519014621</v>
+        <v>0.1545815887740377</v>
       </c>
       <c r="C73">
-        <v>-0.1207904366978817</v>
+        <v>0.1757385626397254</v>
       </c>
       <c r="D73">
-        <v>-0.1723959015235363</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0878030591703904</v>
+      </c>
+      <c r="E73">
+        <v>0.2327363347497502</v>
+      </c>
+      <c r="F73">
+        <v>0.3489490330479129</v>
+      </c>
+      <c r="G73">
+        <v>0.04620652783073524</v>
+      </c>
+      <c r="H73">
+        <v>-0.3553758938568052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06734236312080445</v>
+        <v>0.04628498217654071</v>
       </c>
       <c r="C74">
-        <v>-0.1413157832970663</v>
+        <v>0.1388220139515797</v>
       </c>
       <c r="D74">
-        <v>0.05848200378578322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03231060772796019</v>
+      </c>
+      <c r="E74">
+        <v>-0.07761276552279052</v>
+      </c>
+      <c r="F74">
+        <v>0.003886447645620772</v>
+      </c>
+      <c r="G74">
+        <v>-0.002945457540145506</v>
+      </c>
+      <c r="H74">
+        <v>0.03169349782780839</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1592305749099263</v>
+        <v>0.09220145482962216</v>
       </c>
       <c r="C75">
-        <v>-0.2514452331538659</v>
+        <v>0.2500515586845394</v>
       </c>
       <c r="D75">
-        <v>0.03545414898962314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02746956306678839</v>
+      </c>
+      <c r="E75">
+        <v>-0.1700628998940144</v>
+      </c>
+      <c r="F75">
+        <v>0.1388531945273956</v>
+      </c>
+      <c r="G75">
+        <v>-0.01711648995599492</v>
+      </c>
+      <c r="H75">
+        <v>0.2262603116652989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.08849063870886838</v>
+        <v>0.05418261783785379</v>
       </c>
       <c r="C76">
-        <v>-0.1757444289435476</v>
+        <v>0.1774741206585375</v>
       </c>
       <c r="D76">
-        <v>-0.001110646022815416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03219170018939371</v>
+      </c>
+      <c r="E76">
+        <v>-0.07152526901766337</v>
+      </c>
+      <c r="F76">
+        <v>0.06882351257763362</v>
+      </c>
+      <c r="G76">
+        <v>-0.04184542348194779</v>
+      </c>
+      <c r="H76">
+        <v>0.07284250075105013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.002960126432817247</v>
+        <v>0.003705799755273741</v>
       </c>
       <c r="C77">
-        <v>-0.117226957408961</v>
+        <v>0.1531453878863139</v>
       </c>
       <c r="D77">
-        <v>-0.2033434622533455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.9316541121635755</v>
+      </c>
+      <c r="E77">
+        <v>-0.1713248045283558</v>
+      </c>
+      <c r="F77">
+        <v>0.09386534312006999</v>
+      </c>
+      <c r="G77">
+        <v>0.1051521629607125</v>
+      </c>
+      <c r="H77">
+        <v>-0.127487119769949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02278640795144497</v>
+        <v>0.02341575353343124</v>
       </c>
       <c r="C78">
-        <v>-0.1048387654429882</v>
+        <v>0.11234120948025</v>
       </c>
       <c r="D78">
-        <v>-0.1220075942348701</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.02281060085280834</v>
+      </c>
+      <c r="E78">
+        <v>0.09607313804168613</v>
+      </c>
+      <c r="F78">
+        <v>-0.06167274799133814</v>
+      </c>
+      <c r="G78">
+        <v>-0.06557561308626761</v>
+      </c>
+      <c r="H78">
+        <v>0.05267653085521419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07544031305957152</v>
+        <v>0.05278990285179611</v>
       </c>
       <c r="C79">
-        <v>-0.2959137475416777</v>
+        <v>0.2481188934640813</v>
       </c>
       <c r="D79">
-        <v>0.6922453682164416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1587975364695858</v>
+      </c>
+      <c r="E79">
+        <v>-0.4286466648423903</v>
+      </c>
+      <c r="F79">
+        <v>-0.5654348391481411</v>
+      </c>
+      <c r="G79">
+        <v>0.3202472023420744</v>
+      </c>
+      <c r="H79">
+        <v>-0.4782754192065179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.001498087729486972</v>
+        <v>0.008536281083455265</v>
       </c>
       <c r="C80">
-        <v>-0.04842732784825169</v>
+        <v>0.04913696154287424</v>
       </c>
       <c r="D80">
-        <v>-0.02548361574006517</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03518038965608967</v>
+      </c>
+      <c r="E80">
+        <v>0.0511756314295645</v>
+      </c>
+      <c r="F80">
+        <v>0.01392380761517877</v>
+      </c>
+      <c r="G80">
+        <v>-0.05967600611464276</v>
+      </c>
+      <c r="H80">
+        <v>-0.03658103527882918</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06171805875105133</v>
+        <v>0.02713931143594157</v>
       </c>
       <c r="C81">
-        <v>-0.1627516053885001</v>
+        <v>0.1555710616009019</v>
       </c>
       <c r="D81">
-        <v>0.06987662202340138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03216356325555585</v>
+      </c>
+      <c r="E81">
+        <v>-0.1102230166627246</v>
+      </c>
+      <c r="F81">
+        <v>-0.005896854231152457</v>
+      </c>
+      <c r="G81">
+        <v>-0.04547465081691867</v>
+      </c>
+      <c r="H81">
+        <v>0.08257402407363565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1197898618856637</v>
+        <v>0.06713598605790699</v>
       </c>
       <c r="C82">
-        <v>-0.2636053765854127</v>
+        <v>0.2292406629169115</v>
       </c>
       <c r="D82">
-        <v>0.04240494527284068</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04314755958214629</v>
+      </c>
+      <c r="E82">
+        <v>-0.1617451401247094</v>
+      </c>
+      <c r="F82">
+        <v>0.08630163269823156</v>
+      </c>
+      <c r="G82">
+        <v>-0.09931722730286181</v>
+      </c>
+      <c r="H82">
+        <v>0.1460773165224544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02012491558314793</v>
+        <v>-0.007033692618235582</v>
       </c>
       <c r="C83">
-        <v>-0.0504617228709638</v>
+        <v>0.01737305297161063</v>
       </c>
       <c r="D83">
-        <v>2.774639203450809e-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.08405693568030537</v>
+      </c>
+      <c r="E83">
+        <v>-0.08722837207126309</v>
+      </c>
+      <c r="F83">
+        <v>-0.2171088087405188</v>
+      </c>
+      <c r="G83">
+        <v>-0.8759466739569405</v>
+      </c>
+      <c r="H83">
+        <v>-0.2367682862616743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001477953766715197</v>
+        <v>-0.002979105255784504</v>
       </c>
       <c r="C84">
-        <v>-0.007468811212395537</v>
+        <v>0.0238964823474303</v>
       </c>
       <c r="D84">
-        <v>-0.01566981538424242</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.014274438814162</v>
+      </c>
+      <c r="E84">
+        <v>0.04459382019961752</v>
+      </c>
+      <c r="F84">
+        <v>-0.06106457081024155</v>
+      </c>
+      <c r="G84">
+        <v>0.03193886199944575</v>
+      </c>
+      <c r="H84">
+        <v>0.05505329140678982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08503691287628133</v>
+        <v>0.04991606274988634</v>
       </c>
       <c r="C85">
-        <v>-0.1784116038512265</v>
+        <v>0.1720642214484529</v>
       </c>
       <c r="D85">
-        <v>0.09337134315929915</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09134098958154421</v>
+      </c>
+      <c r="E85">
+        <v>-0.1198248487390508</v>
+      </c>
+      <c r="F85">
+        <v>0.003298213221747144</v>
+      </c>
+      <c r="G85">
+        <v>-0.008771450973770986</v>
+      </c>
+      <c r="H85">
+        <v>0.0537058649046633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02875083282711354</v>
+        <v>0.01700728460483738</v>
       </c>
       <c r="C86">
-        <v>-0.02655392048925587</v>
+        <v>0.05530563989784463</v>
       </c>
       <c r="D86">
-        <v>-0.07351296870062982</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04516855643640851</v>
+      </c>
+      <c r="E86">
+        <v>0.05679138603912792</v>
+      </c>
+      <c r="F86">
+        <v>-0.07631776051586239</v>
+      </c>
+      <c r="G86">
+        <v>0.02807774504756037</v>
+      </c>
+      <c r="H86">
+        <v>0.05793078138471322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02076774083756705</v>
+        <v>0.01187989950460137</v>
       </c>
       <c r="C87">
-        <v>-0.06287775591822466</v>
+        <v>0.08054787651859115</v>
       </c>
       <c r="D87">
-        <v>-0.1155783548610099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.03353289307566795</v>
+      </c>
+      <c r="E87">
+        <v>0.1062978908540036</v>
+      </c>
+      <c r="F87">
+        <v>-0.09198234562745</v>
+      </c>
+      <c r="G87">
+        <v>-0.004612886751904741</v>
+      </c>
+      <c r="H87">
+        <v>0.046938134485729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03416951765797717</v>
+        <v>0.03362397005606407</v>
       </c>
       <c r="C88">
-        <v>-0.07305557300237747</v>
+        <v>0.07989639398575016</v>
       </c>
       <c r="D88">
-        <v>0.0005780918479666392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01710147902304942</v>
+      </c>
+      <c r="E88">
+        <v>0.01221227922829644</v>
+      </c>
+      <c r="F88">
+        <v>0.002163033183703702</v>
+      </c>
+      <c r="G88">
+        <v>0.001947368189456095</v>
+      </c>
+      <c r="H88">
+        <v>0.004941985833900139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.4023632470639328</v>
+        <v>0.4011739893525365</v>
       </c>
       <c r="C89">
-        <v>0.2009027394347348</v>
+        <v>-0.1503509441418465</v>
       </c>
       <c r="D89">
-        <v>-0.003685268518863841</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04221600244665255</v>
+      </c>
+      <c r="E89">
+        <v>0.01726778092451688</v>
+      </c>
+      <c r="F89">
+        <v>-0.1117679735596518</v>
+      </c>
+      <c r="G89">
+        <v>-0.09332770257446087</v>
+      </c>
+      <c r="H89">
+        <v>-0.03518676473218627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.317853814979856</v>
+        <v>0.3240581350434774</v>
       </c>
       <c r="C90">
-        <v>0.1376904355555585</v>
+        <v>-0.09114054935973666</v>
       </c>
       <c r="D90">
-        <v>-0.06709515494947257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02375376276226394</v>
+      </c>
+      <c r="E90">
+        <v>0.0398038646951701</v>
+      </c>
+      <c r="F90">
+        <v>-0.003835302521108413</v>
+      </c>
+      <c r="G90">
+        <v>-0.01607990958370103</v>
+      </c>
+      <c r="H90">
+        <v>0.04671812942800685</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09571915359076916</v>
+        <v>0.06248276611695121</v>
       </c>
       <c r="C91">
-        <v>-0.2183451884217993</v>
+        <v>0.1900070925497131</v>
       </c>
       <c r="D91">
-        <v>0.1041683681561218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03036285619658784</v>
+      </c>
+      <c r="E91">
+        <v>-0.1610253352355788</v>
+      </c>
+      <c r="F91">
+        <v>0.0007496273874163192</v>
+      </c>
+      <c r="G91">
+        <v>-0.03160074010437545</v>
+      </c>
+      <c r="H91">
+        <v>0.04181536804717582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.3149680128393046</v>
+        <v>0.3415833841084752</v>
       </c>
       <c r="C92">
-        <v>0.1752005396871416</v>
+        <v>-0.136171862050638</v>
       </c>
       <c r="D92">
-        <v>0.04899359030558162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05627863249019751</v>
+      </c>
+      <c r="E92">
+        <v>-0.03573694590954184</v>
+      </c>
+      <c r="F92">
+        <v>-0.07760755218551937</v>
+      </c>
+      <c r="G92">
+        <v>0.07814547085208491</v>
+      </c>
+      <c r="H92">
+        <v>0.07584755404625959</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3373837495616256</v>
+        <v>0.3316189219037046</v>
       </c>
       <c r="C93">
-        <v>0.1523348212203698</v>
+        <v>-0.1135971258849058</v>
       </c>
       <c r="D93">
-        <v>0.02589203433209986</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02143746929352517</v>
+      </c>
+      <c r="E93">
+        <v>-0.01872527781934853</v>
+      </c>
+      <c r="F93">
+        <v>-0.0006428772859878658</v>
+      </c>
+      <c r="G93">
+        <v>0.04780127720664596</v>
+      </c>
+      <c r="H93">
+        <v>0.008833484993210352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1646571521558799</v>
+        <v>0.1111421533505563</v>
       </c>
       <c r="C94">
-        <v>-0.2733190333923917</v>
+        <v>0.2598848141193715</v>
       </c>
       <c r="D94">
-        <v>0.1043432157973481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0927165772266083</v>
+      </c>
+      <c r="E94">
+        <v>-0.2824307196217217</v>
+      </c>
+      <c r="F94">
+        <v>0.1738603805197886</v>
+      </c>
+      <c r="G94">
+        <v>-0.09857052106100202</v>
+      </c>
+      <c r="H94">
+        <v>0.3061556272070083</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.001403305546118783</v>
+        <v>0.01595818126581817</v>
       </c>
       <c r="C95">
-        <v>-0.07118675976244755</v>
+        <v>0.09976819703245449</v>
       </c>
       <c r="D95">
-        <v>-0.09013867868832498</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1213026718573199</v>
+      </c>
+      <c r="E95">
+        <v>0.04440346981145276</v>
+      </c>
+      <c r="F95">
+        <v>0.05752750373729348</v>
+      </c>
+      <c r="G95">
+        <v>-0.006796625449869944</v>
+      </c>
+      <c r="H95">
+        <v>-0.02724033292858526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002045250382064283</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001275787381183451</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.004308490367139145</v>
+      </c>
+      <c r="E97">
+        <v>0.003533769891561905</v>
+      </c>
+      <c r="F97">
+        <v>0.0007559737335451946</v>
+      </c>
+      <c r="G97">
+        <v>0.004748618315554557</v>
+      </c>
+      <c r="H97">
+        <v>0.00380817410067656</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1201732182877255</v>
+        <v>0.1317941147540807</v>
       </c>
       <c r="C98">
-        <v>-0.1159078670929968</v>
+        <v>0.1569239513590522</v>
       </c>
       <c r="D98">
-        <v>-0.1352744947935706</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06723877434251156</v>
+      </c>
+      <c r="E98">
+        <v>0.1676973402071845</v>
+      </c>
+      <c r="F98">
+        <v>0.2752242599566393</v>
+      </c>
+      <c r="G98">
+        <v>0.04780214687160422</v>
+      </c>
+      <c r="H98">
+        <v>-0.2944764999768901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001048492136353721</v>
+        <v>0.003114082838435998</v>
       </c>
       <c r="C101">
-        <v>-0.02858001641951131</v>
+        <v>0.05169004154015933</v>
       </c>
       <c r="D101">
-        <v>-0.06229453006023868</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01147883759596784</v>
+      </c>
+      <c r="E101">
+        <v>0.1156237765283884</v>
+      </c>
+      <c r="F101">
+        <v>-0.05571501510308157</v>
+      </c>
+      <c r="G101">
+        <v>-0.03719617666798462</v>
+      </c>
+      <c r="H101">
+        <v>-0.06179924885853052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04838906069631325</v>
+        <v>0.01633501815971782</v>
       </c>
       <c r="C102">
-        <v>-0.1489344160952338</v>
+        <v>0.1075770066946253</v>
       </c>
       <c r="D102">
-        <v>-0.004069364717574324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.01380972915303953</v>
+      </c>
+      <c r="E102">
+        <v>-0.07884233568276956</v>
+      </c>
+      <c r="F102">
+        <v>0.07170798227300006</v>
+      </c>
+      <c r="G102">
+        <v>-0.0449270315795876</v>
+      </c>
+      <c r="H102">
+        <v>0.05040032643119317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
